--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E5C89-0BF6-492F-B760-ED286607D946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C36EBE-3204-4E2F-9685-673782C37696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Door</t>
+  </si>
+  <si>
+    <t>Shave</t>
   </si>
 </sst>
 </file>
@@ -1753,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2525,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -2663,38 +2666,36 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>176</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>16</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>120</v>
@@ -2712,18 +2713,18 @@
         <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>120</v>
@@ -2741,18 +2742,18 @@
         <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I41" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>120</v>
@@ -2770,18 +2771,18 @@
         <v>124</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>120</v>
@@ -2799,18 +2800,18 @@
         <v>124</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I43" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>120</v>
@@ -2828,18 +2829,18 @@
         <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="H44" s="1">
         <v>32</v>
       </c>
       <c r="I44" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>120</v>
@@ -2857,18 +2858,18 @@
         <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H45" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I45" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>120</v>
@@ -2880,24 +2881,24 @@
         <v>16</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" s="1">
         <v>48</v>
       </c>
       <c r="I46" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>120</v>
@@ -2909,24 +2910,24 @@
         <v>16</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I47" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>120</v>
@@ -2944,10 +2945,10 @@
         <v>124</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I48" s="1">
         <v>48</v>
@@ -2955,7 +2956,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>120</v>
@@ -2973,10 +2974,10 @@
         <v>124</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I49" s="1">
         <v>48</v>
@@ -2984,7 +2985,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>120</v>
@@ -3002,10 +3003,10 @@
         <v>124</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I50" s="1">
         <v>48</v>
@@ -3013,7 +3014,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>120</v>
@@ -3031,18 +3032,18 @@
         <v>124</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="1">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="I51" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>120</v>
@@ -3060,10 +3061,10 @@
         <v>124</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52" s="1">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I52" s="1">
         <v>64</v>
@@ -3071,7 +3072,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>120</v>
@@ -3089,10 +3090,10 @@
         <v>124</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="1">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I53" s="1">
         <v>64</v>
@@ -3100,7 +3101,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>120</v>
@@ -3118,10 +3119,10 @@
         <v>124</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54" s="1">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I54" s="1">
         <v>64</v>
@@ -3129,7 +3130,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>120</v>
@@ -3141,24 +3142,24 @@
         <v>16</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" s="1">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I55" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>120</v>
@@ -3170,16 +3171,16 @@
         <v>16</v>
       </c>
       <c r="E56" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56" s="1">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I56" s="1">
         <v>48</v>
@@ -3187,7 +3188,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>120</v>
@@ -3199,16 +3200,16 @@
         <v>16</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" s="1">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I57" s="1">
         <v>48</v>
@@ -3216,7 +3217,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>120</v>
@@ -3234,18 +3235,18 @@
         <v>124</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" s="1">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="I58" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>120</v>
@@ -3260,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H59" s="1">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I59" s="1">
         <v>64</v>
@@ -3274,7 +3275,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>120</v>
@@ -3292,10 +3293,10 @@
         <v>125</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" s="1">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I60" s="1">
         <v>64</v>
@@ -3303,7 +3304,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>120</v>
@@ -3318,21 +3319,21 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="1">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="I61" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>120</v>
@@ -3344,24 +3345,24 @@
         <v>16</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H62" s="1">
         <v>176</v>
       </c>
       <c r="I62" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>120</v>
@@ -3379,10 +3380,10 @@
         <v>124</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63" s="1">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I63" s="1">
         <v>64</v>
@@ -3390,7 +3391,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>120</v>
@@ -3408,18 +3409,18 @@
         <v>124</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64" s="1">
         <v>192</v>
       </c>
       <c r="I64" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>120</v>
@@ -3437,10 +3438,10 @@
         <v>124</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" s="1">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I65" s="1">
         <v>48</v>
@@ -3448,7 +3449,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>120</v>
@@ -3466,10 +3467,10 @@
         <v>124</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66" s="1">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I66" s="1">
         <v>48</v>
@@ -3477,7 +3478,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>120</v>
@@ -3495,10 +3496,10 @@
         <v>124</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H67" s="1">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I67" s="1">
         <v>48</v>
@@ -3506,7 +3507,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>120</v>
@@ -3515,27 +3516,27 @@
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="H68" s="1">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="I68" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>120</v>
@@ -3553,12 +3554,41 @@
         <v>125</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="1">
+        <v>224</v>
+      </c>
+      <c r="I69" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H70" s="1">
         <v>240</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I70" s="1">
         <v>64</v>
       </c>
     </row>

--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C36EBE-3204-4E2F-9685-673782C37696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8944C-0BA2-4F17-908D-61A2D8F6F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,6 +492,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,14 +832,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE05F63-8377-4ACF-8A13-F43DF1F1C6BA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
       <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
@@ -895,13 +898,13 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -921,13 +924,13 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -947,13 +950,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
@@ -973,13 +976,13 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
@@ -999,13 +1002,13 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="1">
@@ -1025,13 +1028,13 @@
       <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
+      <c r="B8" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
@@ -1051,13 +1054,13 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
@@ -1077,13 +1080,13 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
+      <c r="B10" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
@@ -1103,13 +1106,13 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
+      <c r="B11" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1">
@@ -1129,13 +1132,13 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1">
@@ -1155,13 +1158,13 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
+      <c r="B13" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1">
@@ -1181,13 +1184,13 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>3</v>
       </c>
       <c r="E14" s="1">
@@ -1207,13 +1210,13 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="B15" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1">
@@ -1233,13 +1236,13 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
+      <c r="B16" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1">
@@ -1259,13 +1262,13 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
+      <c r="B17" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1">
@@ -1285,13 +1288,13 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
+      <c r="B18" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1">
@@ -1311,13 +1314,13 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
+      <c r="B19" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
@@ -1337,13 +1340,13 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
+      <c r="B20" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
@@ -1363,13 +1366,13 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
@@ -1389,13 +1392,13 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
+      <c r="B22" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
@@ -1415,13 +1418,13 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
+      <c r="B23" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1">
@@ -1441,13 +1444,13 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
+      <c r="B24" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
@@ -1467,13 +1470,13 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
+      <c r="B25" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>4</v>
       </c>
       <c r="E25" s="1">
@@ -1493,13 +1496,13 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>27</v>
+      <c r="B26" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
@@ -1519,13 +1522,13 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>28</v>
+      <c r="B27" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
@@ -1545,13 +1548,13 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
+      <c r="B28" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
@@ -1571,13 +1574,13 @@
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
-        <v>28</v>
+      <c r="B29" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
@@ -1597,13 +1600,13 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
+      <c r="B30" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
@@ -1623,13 +1626,13 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
+      <c r="B31" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
@@ -1649,13 +1652,13 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
+      <c r="B32" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
@@ -1675,13 +1678,13 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
+      <c r="B33" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
@@ -1701,13 +1704,13 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
+      <c r="B34" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
@@ -1727,13 +1730,13 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
+      <c r="B35" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
@@ -1758,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1833,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
@@ -1856,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1879,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1902,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1925,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1948,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1971,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1994,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2017,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2063,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2704,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2733,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -2762,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2791,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -2820,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2849,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -2878,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -2907,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
@@ -2936,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -2965,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2994,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -3023,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -3052,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3081,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -3110,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3139,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3168,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -3197,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
@@ -3226,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -3255,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -3284,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -3313,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3342,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3400,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3429,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -3458,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -3487,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3516,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -3594,5 +3597,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8944C-0BA2-4F17-908D-61A2D8F6F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BB2726-43C1-4F5B-95A4-8643F676635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
     <sheet name="Items" sheetId="2" r:id="rId2"/>
+    <sheet name="Craft" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -424,6 +425,141 @@
   </si>
   <si>
     <t>Shave</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Size_X</t>
+  </si>
+  <si>
+    <t>Size_Y</t>
+  </si>
+  <si>
+    <t>Shaped</t>
+  </si>
+  <si>
+    <t>Craft_0</t>
+  </si>
+  <si>
+    <t>Craft_1</t>
+  </si>
+  <si>
+    <t>Craft_2</t>
+  </si>
+  <si>
+    <t>Wood_Planks_block_item,Wood_Planks_block_item</t>
+  </si>
+  <si>
+    <t>Wood_Planks_block_item.Wood_Planks_block_item.Wood_Planks_block_item</t>
+  </si>
+  <si>
+    <t>Wood_Planks_block_item,null,Wood_Planks_block_item</t>
+  </si>
+  <si>
+    <t>Cobblestone_block_item,Cobblestone_block_item,Cobblestone_block_item</t>
+  </si>
+  <si>
+    <t>Cobblestone_block_item,null,Cobblestone_block_item</t>
+  </si>
+  <si>
+    <t>Wool_White_block_item,Wool_White_block_item,Wool_White_block_item</t>
+  </si>
+  <si>
+    <t>Wool_Black_block_item,Wool_Black_block_item,Wool_Black_block_item</t>
+  </si>
+  <si>
+    <t>Wool_Red_block_item,Wool_Red_block_item,Wool_Red_block_item</t>
+  </si>
+  <si>
+    <t>Wool_Yellow_block_item,Wool_Yellow_block_item,Wool_Yellow_block_item</t>
+  </si>
+  <si>
+    <t>Wool_Blue_block_item,Wool_Blue_block_item,Wool_Blue_block_item</t>
+  </si>
+  <si>
+    <t>Wool_Green_block_item,Wool_Green_block_item,Wool_Green_block_item</t>
+  </si>
+  <si>
+    <t>Diamond,Diamond,Diamond</t>
+  </si>
+  <si>
+    <t>Gold,Gold,Gold</t>
+  </si>
+  <si>
+    <t>Iron,Iron,Iron</t>
+  </si>
+  <si>
+    <t>Wood_Planks_block_item,Wood_Planks_block_item,Wood_Planks_block_item</t>
+  </si>
+  <si>
+    <t>null,Stick,null</t>
+  </si>
+  <si>
+    <t>Cobblestone_block_item,Cobblestone_block_item</t>
+  </si>
+  <si>
+    <t>Iron,Iron</t>
+  </si>
+  <si>
+    <t>Gold,Gold</t>
+  </si>
+  <si>
+    <t>Diamond,Diamond</t>
+  </si>
+  <si>
+    <t>null,Stick</t>
+  </si>
+  <si>
+    <t>Wood_Planks_block_item,Stick</t>
+  </si>
+  <si>
+    <t>Cobblestone_block_item,Stick</t>
+  </si>
+  <si>
+    <t>Iron,Stick</t>
+  </si>
+  <si>
+    <t>Gold,Stick</t>
+  </si>
+  <si>
+    <t>Diamond,Stick</t>
+  </si>
+  <si>
+    <t>Stick,Wood_Planks_block_item</t>
+  </si>
+  <si>
+    <t>Stick,Cobblestone_block_item</t>
+  </si>
+  <si>
+    <t>Stick,Iron</t>
+  </si>
+  <si>
+    <t>Stick,Diamond</t>
+  </si>
+  <si>
+    <t>Stick,Gold</t>
+  </si>
+  <si>
+    <t>Stick,null</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Shears</t>
+  </si>
+  <si>
+    <t>null,Iron</t>
+  </si>
+  <si>
+    <t>Iron,null</t>
+  </si>
+  <si>
+    <t>Special</t>
   </si>
 </sst>
 </file>
@@ -833,7 +969,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1633,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1523,7 +1659,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1549,7 +1685,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -1575,7 +1711,7 @@
         <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1761,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2127,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2014,7 +2150,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2037,7 +2173,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2060,7 +2196,7 @@
         <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2671,10 +2807,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -3457,7 +3593,7 @@
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="5">
         <v>0</v>
       </c>
       <c r="D66" s="1">
@@ -3542,7 +3678,7 @@
         <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -3571,7 +3707,7 @@
         <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -3599,4 +3735,1213 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC02698-AB06-4E47-BFA6-DBAF2D5E7097}">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="50.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BB2726-43C1-4F5B-95A4-8643F676635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13D220-EE9E-4507-9EE7-95EBD56B6651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
@@ -969,7 +969,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13D220-EE9E-4507-9EE7-95EBD56B6651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4FD74-3A57-4AF0-A42F-DC11280B0C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
     <sheet name="Items" sheetId="2" r:id="rId2"/>
     <sheet name="Craft" sheetId="3" r:id="rId3"/>
+    <sheet name="Smelt" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -968,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE05F63-8377-4ACF-8A13-F43DF1F1C6BA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1897,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,7 +3743,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,4 +4945,214 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D32506-C071-4BF3-92EA-1CAD9496F7D0}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4FD74-3A57-4AF0-A42F-DC11280B0C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52991A59-AE9A-495D-AFDF-5E3FE65699D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE05F63-8377-4ACF-8A13-F43DF1F1C6BA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -1556,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>23</v>
@@ -4951,7 +4951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D32506-C071-4BF3-92EA-1CAD9496F7D0}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>

--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52991A59-AE9A-495D-AFDF-5E3FE65699D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC737E3E-8B81-42A4-8048-791B79260DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>Size_Y</t>
-  </si>
-  <si>
-    <t>Shaped</t>
   </si>
   <si>
     <t>Craft_0</t>
@@ -969,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE05F63-8377-4ACF-8A13-F43DF1F1C6BA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1527,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -1556,7 +1553,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1582,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -1634,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1660,7 +1657,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1686,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -1712,7 +1709,7 @@
         <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1899,7 +1896,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2125,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -2151,7 +2148,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -2174,7 +2171,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2197,7 +2194,7 @@
         <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -2808,10 +2805,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -3740,20 +3737,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC02698-AB06-4E47-BFA6-DBAF2D5E7097}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="50.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -3775,11 +3772,8 @@
       <c r="G1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -3792,14 +3786,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3812,17 +3803,14 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -3835,17 +3823,14 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3858,20 +3843,17 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -3884,20 +3866,17 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="E6" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -3910,20 +3889,17 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3936,17 +3912,14 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="E8" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3959,17 +3932,14 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
+      <c r="E9" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3982,17 +3952,14 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="E10" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -4005,17 +3972,14 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -4028,17 +3992,14 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
+      <c r="E12" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -4051,17 +4012,14 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
+      <c r="E13" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -4074,20 +4032,17 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
+      <c r="E14" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4100,20 +4055,17 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -4126,20 +4078,17 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
+      <c r="E16" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -4152,20 +4101,17 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -4178,20 +4124,17 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
+      <c r="E18" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -4204,20 +4147,17 @@
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -4230,20 +4170,17 @@
       <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
+      <c r="E20" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -4256,20 +4193,17 @@
       <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
+      <c r="E21" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -4282,20 +4216,17 @@
       <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
+      <c r="E22" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -4308,20 +4239,17 @@
       <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
+      <c r="E23" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -4334,20 +4262,17 @@
       <c r="D24" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
+      <c r="E24" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -4360,20 +4285,17 @@
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
+      <c r="E25" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -4386,20 +4308,17 @@
       <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
+      <c r="E26" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -4412,20 +4331,17 @@
       <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
+      <c r="E27" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -4438,20 +4354,17 @@
       <c r="D28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
+      <c r="E28" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -4464,20 +4377,17 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
+      <c r="E29" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -4490,20 +4400,17 @@
       <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
+      <c r="E30" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -4516,20 +4423,17 @@
       <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -4542,20 +4446,17 @@
       <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -4568,20 +4469,17 @@
       <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
+      <c r="E33" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4594,22 +4492,19 @@
       <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -4620,22 +4515,19 @@
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
+      <c r="E35" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -4646,22 +4538,19 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
+      <c r="E36" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -4672,22 +4561,19 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
+      <c r="E37" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -4698,230 +4584,309 @@
       <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
+      <c r="E38" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="1" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="1" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">

--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC737E3E-8B81-42A4-8048-791B79260DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A34DD8-6F23-498D-8DF5-D9CD858E279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>Special</t>
+  </si>
+  <si>
+    <t>Emerald,Emerald,Emerald</t>
   </si>
 </sst>
 </file>
@@ -966,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE05F63-8377-4ACF-8A13-F43DF1F1C6BA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1895,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A55" activeCellId="3" sqref="A52 A53 A54 A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC02698-AB06-4E47-BFA6-DBAF2D5E7097}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4824,7 +4827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -4844,49 +4847,185 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">

--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A34DD8-6F23-498D-8DF5-D9CD858E279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD6392-F93E-4269-A429-314FF130E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -967,45 +967,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE05F63-8377-4ACF-8A13-F43DF1F1C6BA}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1013,37 +1016,40 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
       <c r="E2" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>256</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
@@ -1051,169 +1057,190 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
       <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>16</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>32</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>40</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1221,25 +1248,28 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>48</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1247,25 +1277,28 @@
         <v>99</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>56</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1273,25 +1306,28 @@
         <v>100</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
-        <v>64</v>
-      </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1299,25 +1335,28 @@
         <v>101</v>
       </c>
       <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
       <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
         <v>72</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1325,567 +1364,633 @@
         <v>102</v>
       </c>
       <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
         <v>80</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
       <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
         <v>88</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
       <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
         <v>96</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
       <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
         <v>104</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
       <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
         <v>112</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>120</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
       <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>128</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
       <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>136</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
       <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>144</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
       <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <v>152</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
       <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>160</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>168</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
       <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>176</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
       <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>184</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
       <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
         <v>192</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
       <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>200</v>
       </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
       <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
         <v>208</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
       <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <v>216</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
       <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
         <v>224</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
       <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>232</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
       <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>240</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
       <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>248</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1898,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A55" activeCellId="3" sqref="A52 A53 A54 A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC02698-AB06-4E47-BFA6-DBAF2D5E7097}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5056,7 +5161,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD6392-F93E-4269-A429-314FF130E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C57C2E-E9E8-440F-BD75-B34C3860701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>Emerald,Emerald,Emerald</t>
+  </si>
+  <si>
+    <t>Stone_block_item,Stone_block_item</t>
   </si>
 </sst>
 </file>
@@ -2003,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC02698-AB06-4E47-BFA6-DBAF2D5E7097}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,7 +5116,24 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>

--- a/assets/data/SheetTable.xlsx
+++ b/assets/data/SheetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Avela\Pyxel\PyxelMeetsCraft\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C57C2E-E9E8-440F-BD75-B34C3860701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26102C37-5C7C-49A2-BB6F-49BDD06C5C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D86D60BF-61DD-4416-8ABE-6AA53555BF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>Stone_block_item,Stone_block_item</t>
+  </si>
+  <si>
+    <t>Dirt_block_item,Leaves_block_item</t>
+  </si>
+  <si>
+    <t>Leaves_block_item,Dirt_block_item</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E204B5-2DBB-4D1D-8B6B-17C70CA7456E}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3850,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC02698-AB06-4E47-BFA6-DBAF2D5E7097}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,19 +5142,88 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
